--- a/app/config/tables/example_ctp_delivery_form/forms/example_ctp_delivery_form/example_ctp_delivery_form.xlsx
+++ b/app/config/tables/example_ctp_delivery_form/forms/example_ctp_delivery_form/example_ctp_delivery_form.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/ctp_delivery/forms/ctp_delivery/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DemoRedCross\redcross-app-designer\app\config\tables\example_ctp_delivery_form\forms\example_ctp_delivery_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19220" yWindow="4780" windowWidth="33300" windowHeight="19420" tabRatio="989" activeTab="4"/>
+    <workbookView xWindow="19224" yWindow="4776" windowWidth="33300" windowHeight="19416" tabRatio="989" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <sheet name="prompt_types" sheetId="9" r:id="rId8"/>
     <sheet name="initial" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -341,9 +341,6 @@
     <t>CTP</t>
   </si>
   <si>
-    <t>ctp_delivery</t>
-  </si>
-  <si>
     <t>ctp</t>
   </si>
   <si>
@@ -357,12 +354,15 @@
   </si>
   <si>
     <t>data('assigned_item_pack_code') === data('item_pack_barcode') || data('assigned_item_pack_code') == '' || data('assigned_item_pack_code') == null || data('assigned_item_pack_code') == undefined</t>
+  </si>
+  <si>
+    <t>example_ctp_delivery_form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -652,6 +652,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -925,21 +928,21 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="22.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.296875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.796875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -974,10 +977,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="39" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="84" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="84" x14ac:dyDescent="0.4">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
@@ -988,7 +991,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="38" t="s">
@@ -1001,7 +1004,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="11" t="s">
@@ -1023,10 +1026,10 @@
       </c>
       <c r="K3" s="10"/>
       <c r="L3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="18" t="s">
@@ -1060,12 +1063,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="48.6640625" customWidth="1"/>
+    <col min="6" max="6" width="48.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="78" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>25</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>12</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
@@ -1166,13 +1169,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="50.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
@@ -1183,7 +1186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
         <v>18</v>
       </c>
@@ -1191,7 +1194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
         <v>22</v>
       </c>
@@ -1199,15 +1202,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
@@ -1229,13 +1232,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="29" t="s">
         <v>41</v>
       </c>
@@ -1246,16 +1252,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="32" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="34"/>
     </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="32" t="s">
         <v>45</v>
       </c>
@@ -1264,16 +1270,16 @@
       </c>
       <c r="C3" s="34"/>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C4" s="34"/>
     </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="32" t="s">
         <v>47</v>
       </c>
@@ -1282,12 +1288,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="32" t="s">
         <v>48</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="34"/>
     </row>
@@ -1301,13 +1307,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1318,7 +1324,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1329,7 +1335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1354,9 +1360,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1394,9 +1400,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>60</v>
       </c>
@@ -1413,7 +1419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>63</v>
       </c>
@@ -1430,7 +1436,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1447,7 +1453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1478,9 +1484,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>72</v>
       </c>
@@ -1488,7 +1494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>73</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>75</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>76</v>
       </c>
@@ -1512,7 +1518,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>77</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>78</v>
       </c>
@@ -1528,7 +1534,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>79</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>11</v>
       </c>
@@ -1558,9 +1564,9 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1574,14 +1580,14 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
     </row>
-    <row r="3" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="234" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>83</v>
       </c>
